--- a/biology/Botanique/Charpente/Charpente.xlsx
+++ b/biology/Botanique/Charpente/Charpente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une charpente est un assemblage d'éléments en bois, métal ou béton[1], servant à soutenir ou couvrir des constructions. C'est une ossature porteuse ponctuelle, par opposition à la structure linéaire que constitue un mur continu.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une charpente est un assemblage d'éléments en bois, métal ou béton, servant à soutenir ou couvrir des constructions. C'est une ossature porteuse ponctuelle, par opposition à la structure linéaire que constitue un mur continu.
 On désigne souvent par charpente l'ossature de poteaux et poutres qui reprend le poids de la couverture ainsi que les charges verticales (c’est-à-dire les forces verticales s'exerçant sur la charpente) telles que les surcharges climatiques (neige).
 C'est le charpentier qui est chargé de la mise en place d'une charpente.
 La « charpenterie » désigne aussi bien l'art du charpentier que le chantier de charpente.
@@ -514,10 +526,12 @@
           <t>Un artisanat préhistorique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Structure de Kalambo est la plus ancienne preuve de construction de charpente date de 476 000 ans avant le présent (avec une marge de plus ou moins 23 000 ans). Elle a été découverte en amont des chutes de Kalambo, en Zambie. Il s'agit d'un croisillon obtenu en posant un rondin de bois dans une entaille pratiquée dans un autre qui aurait servi de structure pour aménager un accès à l’eau ou pour isoler une habitation de l’humidité. Le charpentier auteur de cet ouvrage pourrait être un Homo rhodesiensis (autrefois dénommé Homo heidelbergensis),  qui serait l'ancêtre d’Homo sapiens en Afrique. Un fragment de planche datant de 780 000 ans a également été découvert sur le site paléolithique du Pont des Filles de Jacob en Israël[2].
-En Europe, l'exemple connu le plus lointain date de -180 000 ans. Il s'agit d'un agencement de stalagmites dans la grotte de Bruniquel, dans le Tarn et Garonne, mis en place par l'Homme de Néandertal. Mais de nombreux outils de charpente en bois comme des épieux, des bâtons à fouir et des cales datant de moins de -400 000 ans suggèrent une activité bien plus précoce[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Structure de Kalambo est la plus ancienne preuve de construction de charpente date de 476 000 ans avant le présent (avec une marge de plus ou moins 23 000 ans). Elle a été découverte en amont des chutes de Kalambo, en Zambie. Il s'agit d'un croisillon obtenu en posant un rondin de bois dans une entaille pratiquée dans un autre qui aurait servi de structure pour aménager un accès à l’eau ou pour isoler une habitation de l’humidité. Le charpentier auteur de cet ouvrage pourrait être un Homo rhodesiensis (autrefois dénommé Homo heidelbergensis),  qui serait l'ancêtre d’Homo sapiens en Afrique. Un fragment de planche datant de 780 000 ans a également été découvert sur le site paléolithique du Pont des Filles de Jacob en Israël.
+En Europe, l'exemple connu le plus lointain date de -180 000 ans. Il s'agit d'un agencement de stalagmites dans la grotte de Bruniquel, dans le Tarn et Garonne, mis en place par l'Homme de Néandertal. Mais de nombreux outils de charpente en bois comme des épieux, des bâtons à fouir et des cales datant de moins de -400 000 ans suggèrent une activité bien plus précoce.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Les bois de charpente</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les essences de bois utilisées pour la fabrication des charpentes traditionnelles sont nombreuses, de plus, elles varient considérablement d’une région à une autre et même d’une époque à l’autre : elles dépendent en partie des possibilités momentanées d’exploitation et d’approvisionnement. Dans ces conditions, il est difficile de donner une liste exhaustive des essences de bois utilisées, celle qui suit reste donc ouverte. Ainsi, les essences de bois principalement utilisées en charpenterie sont, pour des essences résineuses : le sapin, l'épicéa, le mélèze, le pin, le Douglas ; pour des essences feuillues caduques : le peuplier tremble, le châtaignier, l'orme, le chêne.
 Avec une proposition de classification suivante, les résineux et les caducs, avec une progression dans les densités pour chaque catégorie.
@@ -588,7 +604,9 @@
           <t>La charpente, le métier du charpentier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La charpenterie est traditionnellement du ressort du charpentier, à l'origine un métier de bois. Avant la révolution industrielle qui voit d'autres matériaux se substituer au bois (fonte, fer forgé, acier, béton armé, etc.) ainsi que d'autres métiers se substituer au charpentier, les attributions du charpentier sont étendues. Citons :
@@ -604,7 +622,7 @@
 les vannes des écluses et des étangs qui sont en bois[C 9] ;
 etc.
 Hormis les bâtiments, ponts, barrages et autres ouvrages d'art qui peuvent être construits en bois, la charpenterie de marine qui s'occupe de bateaux en bois constitue une discipline sœur.
-La menuiserie-charpenterie, spécialisée dans les pans de bois, est un savoir-faire inscrit à l'Inventaire du patrimoine culturel immatériel en France[3],[4].
+La menuiserie-charpenterie, spécialisée dans les pans de bois, est un savoir-faire inscrit à l'Inventaire du patrimoine culturel immatériel en France,.
 </t>
         </is>
       </c>
@@ -633,7 +651,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les manières de construire diffèrent souvent d'un pays à l'autre, parfois d'une région à l'autre. De nombreuses cultures ont joué des formes et des couleurs permises par l'agencement des bois de charpente, murs et planchers. Il faut citer la charpente à pans de bois qui est une structure ponctuelle verticale, la charpente des planchers, ainsi que les murs massifs constitués soit de pièces d'empilage, soit (dans quelques pays nordiques) de pièces verticales juxtaposées. En Europe centrale, il existe des planchers massifs de bois, faits de pièces horizontales juxtaposées.
 En France, la terminologie peut différer d'une région à l'autre, ce qui compromet la validité de certaines entrées de dictionnaire, lesquelles gardent toujours une valeur de référence.
@@ -721,7 +741,9 @@
           <t>Charpente traditionnelle de toiture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Principe : la charpente dite traditionnelle est constituée de fermes, de pannes et de chevrons. Une ferme est composée par l'assemblage de plusieurs pièces de bois massif. Les arbalétriers, l’entrait et le poinçon forment le réseau principal tandis que les contrefiches, les jambes de force, les diagonales et les potelets forment le réseau secondaire d'une ferme.
 Les assemblages des parties constitutives de la ferme se font par embrèvement, boulonnage ou clouage.
@@ -761,7 +783,9 @@
           <t>Charpente métallique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La charpente métallique concurrence la charpente en bois dans presque tous les domaines. La construction d'ouvrages de grande portée est simple. La grande majorité des bâtiments industriels est réalisée avec des charpentes métalliques, notamment pour des questions de coût. Les charpentes métalliques résistent au feu moins longtemps que celles en bois car les caractéristiques mécaniques chutent brutalement en cas d'élévation de température alors que le bois inflammable et combustible perd sa solidité plus graduellement par perte d'épaisseur. Ceci peut imposer une protection au feu spécifique des charpentes métalliques suivant les usages, par un doublage incombustible (isolants, plaques de plâtre) ou par un revêtement intumescent.
 </t>
@@ -792,10 +816,12 @@
           <t>Charpente béton</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La charpente en béton, contrairement à la charpente en bois ou en métal, résiste aux incendies[5].
-Elle présente des performances thermiques, acoustiques ou structurelles selon le type de béton employé (armé, léger, précontraint)[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La charpente en béton, contrairement à la charpente en bois ou en métal, résiste aux incendies.
+Elle présente des performances thermiques, acoustiques ou structurelles selon le type de béton employé (armé, léger, précontraint).
 </t>
         </is>
       </c>
@@ -824,7 +850,9 @@
           <t>Charpente à fermettes industrielles</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fermettes peuvent être considérées comme des chevrons renforcés par triangulation. Elles sont fabriquées généralement avec des pièces de bois en 36 mm d'épaisseur (1'1/2) et assemblées à l'aide de connecteurs métalliques. Ce type de charpente consiste à transmettre les charges de toiture aux murs porteurs par l'intermédiaire de fermes disposées tous les 60 ou 90 cm environ. L'élancement : rapport entre la hauteur et l'épaisseur de la ferme étant très grand, cela impose de stabiliser les fermes par un sous-système de barres perpendiculaire appelé contreventement et anti-flambage.[pas clair]
 La pose d'une charpente industrialisée requiert très peu de temps. Les avantages de ce type de charpente sont le faible coût et un très bon rapport résistance/légèreté. Ces structures sont également utilisées en dehors de la toiture pour, par exemple les coffrages de béton, les échafaudages ainsi que des ouvrages provisoires de support de projets industriels. Les profils et formes sont presque infinis, ce qui permet d'obtenir des toits très variés.
@@ -857,7 +885,9 @@
           <t>Charpentes en lamellé-collé</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique consiste à reconstituer des équarrissages à partir de lamelles de bois de faible section, collées entre elles.
 Le domaine d'application comprend les :
@@ -895,7 +925,9 @@
           <t>Charpente en résille losangique ou lamelles Zollinger</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'architecte allemand Friedrich Zollinger (de) fait breveter en 1923 ce type de charpente, également appelé charpente en nid d'abeille. Cette sorte de charpente ne nécessite pas de poutre mais une multitude de planches de petite longueur. Le toit construit ainsi, appelé toit Zollinger (de), est de forme similaire au toit en carène et en partage les avantages en termes de volume utilisable.
 </t>
@@ -926,7 +958,9 @@
           <t>L'étude des forces sur une charpente</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut définir plusieurs déformations pouvant apparaître sur une pièce d'une charpente : l'allongement/raccourcissement, le flambage, la flexion.
 L'allongement/raccourcissement est dû au travail de la pièce en traction/compression. C'est-à-dire lorsque l'effort s'exerce dans l'axe de la pièce.
@@ -963,35 +997,271 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Assemblages traditionnels
-Assemblage par tenon mortaise
-L'assemblage par tenon mortaise consiste à solidariser 2 éléments dans une position ou l'extrémité de l'un se positionne contre le chant (le côté) de l'autre ; il s'agit d'effectuer sur le 1er un usinage qui consiste à enlever le tiers de l'épaisseur de chaque côté de l'extrémité de l'élément qui se finit ainsi par une languette (un tenon) qui est constituée de la partie centrale de l'extrémité de la pièce de bois ; il s'agit d'effectuer sur le 2e un usinage qui consiste à effectuer sur le chant (le côté de l'élément) une fente (une mortaise) dont l'épaisseur et la largeur correspondent à l'épaisseur et la largeur du tenon. Cette fente (mortaise) doit être d'une profondeur au minimum légèrement supérieure à la longueur du tenon. La profondeur d'une mortaise peut être de la totalité de la largeur de l'élément, dans ce cas la mortaise (la fente) traverse l'élément de part en part. On vient ensuite glisser l'extrémité du 1er élément (le tenon) dans la fente (la mortaise) qui se trouve sur le côté (le chant) du 2e élément, les 2 éléments ainsi emboîtés pourront être solidarisés avec de la colle, des pointes, une cheville ou autres…
-Assemblage par cheville bois
-L'assemblage par cheville bois consiste à solidariser 2 éléments en effectuant d'abord un usinage tenon et mortaise sur les 2 éléments à assembler, puis à assembler le tenon et la mortaise. Il faut ensuite effectuer 1 ou 2 perçages au niveau de l'assemblage, perçages appelé aussi enlaçure dont l'axe du percement est à 1,5 fois le diamètre de la cheville donc la couture (partie pleine entre le percement et l'arasement ou chant est de même valeur que le diamètre de la cheville. Ces perçages traversent totalement l'épaisseur de l'élément comportant la mortaise en passant par le tenon (qui se trouve sur le 2e élément). On vient ensuite glisser (en force) une pièce de bois cylindrique dans les perçages qui se trouvent alignés (car une fois que le tenon se trouve glissé dans la mortaise, le perçage qui se trouve de part en part de l'élément comportant la mortaise se trouve alors aligné avec le perçage qui se trouve à travers l'épaisseur du tenon) ; cette pièce de bois cylindrique s'appelle une cheville (cheville bois) faite généralement en acacia. Elle doit être d'un diamètre légèrement supérieur au perçage dans lequel elle s'insère et doit dépasser de chaque côté de l'assemblage. La cheville bois doit être en bois dur mais souple. Ainsi grâce au chevillage, l'assemblage tenon/mortaise se trouve verrouillé en force.
-Embrèvement
-Embrèvement à Tenon et Mortaise (menuiserie) ;
+          <t>Assemblages traditionnels</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Assemblage par tenon mortaise</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'assemblage par tenon mortaise consiste à solidariser 2 éléments dans une position ou l'extrémité de l'un se positionne contre le chant (le côté) de l'autre ; il s'agit d'effectuer sur le 1er un usinage qui consiste à enlever le tiers de l'épaisseur de chaque côté de l'extrémité de l'élément qui se finit ainsi par une languette (un tenon) qui est constituée de la partie centrale de l'extrémité de la pièce de bois ; il s'agit d'effectuer sur le 2e un usinage qui consiste à effectuer sur le chant (le côté de l'élément) une fente (une mortaise) dont l'épaisseur et la largeur correspondent à l'épaisseur et la largeur du tenon. Cette fente (mortaise) doit être d'une profondeur au minimum légèrement supérieure à la longueur du tenon. La profondeur d'une mortaise peut être de la totalité de la largeur de l'élément, dans ce cas la mortaise (la fente) traverse l'élément de part en part. On vient ensuite glisser l'extrémité du 1er élément (le tenon) dans la fente (la mortaise) qui se trouve sur le côté (le chant) du 2e élément, les 2 éléments ainsi emboîtés pourront être solidarisés avec de la colle, des pointes, une cheville ou autres…
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Charpente</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charpente</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Assemblages en charpente</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Assemblages traditionnels</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Assemblage par cheville bois</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'assemblage par cheville bois consiste à solidariser 2 éléments en effectuant d'abord un usinage tenon et mortaise sur les 2 éléments à assembler, puis à assembler le tenon et la mortaise. Il faut ensuite effectuer 1 ou 2 perçages au niveau de l'assemblage, perçages appelé aussi enlaçure dont l'axe du percement est à 1,5 fois le diamètre de la cheville donc la couture (partie pleine entre le percement et l'arasement ou chant est de même valeur que le diamètre de la cheville. Ces perçages traversent totalement l'épaisseur de l'élément comportant la mortaise en passant par le tenon (qui se trouve sur le 2e élément). On vient ensuite glisser (en force) une pièce de bois cylindrique dans les perçages qui se trouvent alignés (car une fois que le tenon se trouve glissé dans la mortaise, le perçage qui se trouve de part en part de l'élément comportant la mortaise se trouve alors aligné avec le perçage qui se trouve à travers l'épaisseur du tenon) ; cette pièce de bois cylindrique s'appelle une cheville (cheville bois) faite généralement en acacia. Elle doit être d'un diamètre légèrement supérieur au perçage dans lequel elle s'insère et doit dépasser de chaque côté de l'assemblage. La cheville bois doit être en bois dur mais souple. Ainsi grâce au chevillage, l'assemblage tenon/mortaise se trouve verrouillé en force.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Charpente</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charpente</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Assemblages en charpente</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Assemblages traditionnels</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Embrèvement</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Embrèvement à Tenon et Mortaise (menuiserie) ;
 variante : embrèvement en fourchette (double tenon et double mortaise).
 Assemblage à rainure et languette ;
-Variante : embrèvement à rainure.
-Trait de Jupiter
-Queue d'aronde
-La queue d'aronde est ce que l'on appelle une « clé » en charpente. Quand une poutre prend appui sur une autre sur le même plan et la rencontre perpendiculairement, plutôt qu'utiliser une coupe « à mi-bois » (peu esthétique), on coupe l'extrémité de la poutre en y laissant un U légèrement évasé et sur la poutre porteuse (receveuse de la première), l'égal opposé. De cette façon, il suffit d'emboîter la poutre par le dessus et aucune découpe n'est apparente.
-Entures
-L'assemblage en enture est une entaille traversant toute la largeur de la pièce de bois à mi-bois (moitié évidée moitié pleine), à tiers bois (un tiers évidée deux tiers pleine), ou quart bois (un quart évidée trois quarts pleine), l'évidemment (action d'enlever de la matière) se fait sur l'épaisseur de la pièce (partie la plus fine d'une pièce de bois). L'enture peut être droite ou biaise, c'est-à-dire que l'entaille peut être perpendiculaire à la longueur de la pièce de bois ou bien de faux équerrage.
+Variante : embrèvement à rainure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Charpente</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charpente</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Assemblages en charpente</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Assemblages traditionnels</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Queue d'aronde</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La queue d'aronde est ce que l'on appelle une « clé » en charpente. Quand une poutre prend appui sur une autre sur le même plan et la rencontre perpendiculairement, plutôt qu'utiliser une coupe « à mi-bois » (peu esthétique), on coupe l'extrémité de la poutre en y laissant un U légèrement évasé et sur la poutre porteuse (receveuse de la première), l'égal opposé. De cette façon, il suffit d'emboîter la poutre par le dessus et aucune découpe n'est apparente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Charpente</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charpente</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Assemblages en charpente</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Assemblages traditionnels</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Entures</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'assemblage en enture est une entaille traversant toute la largeur de la pièce de bois à mi-bois (moitié évidée moitié pleine), à tiers bois (un tiers évidée deux tiers pleine), ou quart bois (un quart évidée trois quarts pleine), l'évidemment (action d'enlever de la matière) se fait sur l'épaisseur de la pièce (partie la plus fine d'une pièce de bois). L'enture peut être droite ou biaise, c'est-à-dire que l'entaille peut être perpendiculaire à la longueur de la pièce de bois ou bien de faux équerrage.
 Les entures sont faites sur des pièces de niveau donc c'est-à-dire que les pièces sont mis à plat.
 À ne pas confondre avec les entaillures qui sont faites sur des pièces d'aplomb c'est-à-dire droite comme un « i ».
 Les pièces venant dans les entures sont appelés des entablures. Les entablures sont la partie mâle de l'assemblage.
 Les entablures sont toujours faites en extrémité des pièces de bois tandis que les entures et les entaillures sont faites entre les extrémités de la pièce de bois
-Mi-bois
-L'assemblage à mi-bois consiste à entailler chacune des deux pièces de bois à assembler, en supprimant la moitié de l'épaisseur de chaque pièce du côté de l'intérieur de l'assemblage et cela sur la dimension de la surface de chevauchement des pièces ; ainsi, au niveau du chevauchement des pièces, chacune constitue la moitié de l'épaisseur total de l'assemblage, et les pièces de bois arrivent à affleurements l'une de l'autre de chaque côté de l'assemblage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Charpente</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charpente</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Assemblages en charpente</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Assemblages traditionnels</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mi-bois</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'assemblage à mi-bois consiste à entailler chacune des deux pièces de bois à assembler, en supprimant la moitié de l'épaisseur de chaque pièce du côté de l'intérieur de l'assemblage et cela sur la dimension de la surface de chevauchement des pièces ; ainsi, au niveau du chevauchement des pièces, chacune constitue la moitié de l'épaisseur total de l'assemblage, et les pièces de bois arrivent à affleurements l'une de l'autre de chaque côté de l'assemblage.
 Une variante consiste (lorsque l'entrait d'une ferme est constitué de deux pièces de bois qui se trouvent de part et d'autre du poinçon et des arbalétriers et que le poinçon est d'une épaisseur supérieur à l'épaisseur des arbalétriers), à entailler le poinçon de façon à ne lui laisser que l'épaisseur des arbalétrier ainsi, chaque pièce de l'entrait (de part et d'autre de la ferme), s'assemble avec le poinçon en ayant une partie de son épaisseur incrustée à l'épaisseur du poinçon.
-Assemblages mécaniques
-Connecteurs en plaques
- Palette
-Connecteurs type tiges
-Boulons
-Tirefonds
-Pointes</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Charpente</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charpente</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Assemblages en charpente</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Assemblages mécaniques</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Connecteurs en plaques</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Palette
+</t>
         </is>
       </c>
     </row>
